--- a/EC330/HW2/Grading/grades.xlsx
+++ b/EC330/HW2/Grading/grades.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\misc\ec527\EC330\HW2\Grading\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EC527\EC330\HW2\Grading\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="13680" windowHeight="7980"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="10725" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="95">
   <si>
     <t>MichaelZhu</t>
   </si>
@@ -252,6 +252,63 @@
   </si>
   <si>
     <t>n^2.5</t>
+  </si>
+  <si>
+    <t>nlogn is asymptotically smaller</t>
+  </si>
+  <si>
+    <t>use stirling's approximation to get solution into closed form</t>
+  </si>
+  <si>
+    <t>no mention of construction time</t>
+  </si>
+  <si>
+    <t>better explanation needed</t>
+  </si>
+  <si>
+    <t>how does it simplify?</t>
+  </si>
+  <si>
+    <t>Upper bound is incorrect, and lower bound is very weak</t>
+  </si>
+  <si>
+    <t>no recurrence</t>
+  </si>
+  <si>
+    <t>the while loop takes n time to run</t>
+  </si>
+  <si>
+    <t>For vectors: how did you arrive at this answer? For lists, what is your final run time?</t>
+  </si>
+  <si>
+    <t>invalid lower bound. The upper bound should be O not o</t>
+  </si>
+  <si>
+    <t>no lower bound</t>
+  </si>
+  <si>
+    <t>see solution</t>
+  </si>
+  <si>
+    <t>wrong run time</t>
+  </si>
+  <si>
+    <t>wrong runtime and recurrence</t>
+  </si>
+  <si>
+    <t>need more detail</t>
+  </si>
+  <si>
+    <t>*check c code</t>
+  </si>
+  <si>
+    <t>invalid upper bound</t>
+  </si>
+  <si>
+    <t>wrong recurrence</t>
+  </si>
+  <si>
+    <t>invalid solution</t>
   </si>
 </sst>
 </file>
@@ -603,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,228 +957,470 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
     </row>
-    <row r="5" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-    </row>
-    <row r="6" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+    </row>
+    <row r="6" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-    </row>
-    <row r="7" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="4">
+        <v>5</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4">
+        <v>3</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4">
+        <v>5</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4">
+        <v>5</v>
+      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4">
+        <v>5</v>
+      </c>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+    </row>
+    <row r="7" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-    </row>
-    <row r="8" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-    </row>
-    <row r="9" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="4">
+        <v>4</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="4">
+        <v>4</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4">
+        <v>5</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4">
+        <v>5</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4">
+        <v>4</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="V7" s="4">
+        <v>4</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="X7" s="4">
+        <v>12</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+    </row>
+    <row r="8" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
+        <v>5</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4">
+        <v>5</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4">
+        <v>3</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R8" s="4">
+        <v>3</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="T8" s="4">
+        <v>5</v>
+      </c>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4">
+        <v>1</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="X8" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+    </row>
+    <row r="9" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-    </row>
-    <row r="10" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="4">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="4">
+        <v>4</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
+        <v>5</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4">
+        <v>3</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="T9" s="4">
+        <v>3</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="V9" s="4">
+        <v>1</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="X9" s="4">
+        <v>8</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>15</v>
+      </c>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC9" s="4"/>
+    </row>
+    <row r="10" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="4">
+        <v>5</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4">
+        <v>3</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R10" s="4">
+        <v>3</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="T10" s="4">
+        <v>5</v>
+      </c>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4">
+        <v>5</v>
+      </c>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4">
+        <v>20</v>
+      </c>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
     </row>
     <row r="11" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1137,9 +1436,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
